--- a/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2022-23.xlsx
+++ b/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2022-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A4A548-6F25-4D63-80B6-5F68375A078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE4B231-8096-4D99-8E4F-2D67CD73CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-23" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="276">
   <si>
     <t>SL.NO</t>
   </si>
@@ -850,18 +850,6 @@
   </si>
   <si>
     <t>VENKATRAJ . H</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
   </si>
   <si>
     <t>SGPA-IV</t>
@@ -990,10 +978,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1239,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -4469,51 +4457,30 @@
       <c r="C136" s="4"/>
       <c r="D136" s="2"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7" ht="14.25" customHeight="1">
-      <c r="F137" s="6">
-        <f>SUM(F2:F135)/134</f>
-        <v>7.5858582089552238</v>
-      </c>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B138" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="8">
-        <v>7.6</v>
-      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B139" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="8">
-        <v>135</v>
-      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B140" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="8">
-        <v>134</v>
-      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B141" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8">
-        <v>7.6</v>
-      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="143" spans="1:7" ht="14.25" customHeight="1"/>
